--- a/biology/Histoire de la zoologie et de la botanique/Rudolph_Herman_Christiaan_Carel_Scheffer/Rudolph_Herman_Christiaan_Carel_Scheffer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rudolph_Herman_Christiaan_Carel_Scheffer/Rudolph_Herman_Christiaan_Carel_Scheffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolph Herman Christiaan Carel Scheffer est un botaniste néerlandais, né en 1844 à Spaarndam et mort en 1880 à Sindanglaja.
 Il fait ses études à l’université d'Utrecht et suit les cours de Friedrich Anton Wilhelm Miquel (1811-1871). Après son doctorat en 1867, il part sur l’île de Java et rejoint le Jardin botanique de Buitenzorg l’année suivante. En 1876, il fonde une école d’agriculture et le jardin de montagne de Tjibodas. Il est aussi le fondateur de la revue Annales du Jardin botanique de Buitenzorg.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressources relatives à la recherche : Biodiversity Heritage Library Harvard University Herbaria &amp; Libraries International Plant Names Index  
